--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_23_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_23_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337781.5590914949</v>
+        <v>245167.2580288285</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14758048.2846054</v>
+        <v>14785957.46876066</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6288032.183655249</v>
+        <v>6282241.008167088</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.848256208035304</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="T2" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="U2" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,58 +752,58 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44799022605971</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>43.85944218949135</v>
+      </c>
+      <c r="V3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="I3" t="n">
+      <c r="W3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="J3" t="n">
-        <v>46.18894706358476</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>31.01751192697151</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>37.57007701068535</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="W5" t="n">
-        <v>38.65453325675914</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="H6" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.79500702712468</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>43.8594421894914</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>64.70744504970948</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.65357118422324</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
-        <v>57.96571614961795</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>83.13719072031593</v>
       </c>
     </row>
     <row r="9">
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.71475821016372</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.56947841277972</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>16.65323814921977</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>116.8405921356975</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>33.08000827690834</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>15.37922103265839</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>77.36042051497303</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.11163636040592</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.70122005611984</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>36.39469600159764</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>22.34454489869782</v>
       </c>
       <c r="X15" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.1116363604059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>138.1622215568856</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>99.76882660971489</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>35.20287667141747</v>
+        <v>44.45022224585168</v>
       </c>
       <c r="S17" t="n">
-        <v>143.5836595683024</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5254541783477</v>
+        <v>211.1698774804723</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1159255221454</v>
+        <v>251.1277025328068</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>337.6361713017743</v>
       </c>
       <c r="X17" t="n">
-        <v>58.19540546516651</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>14.3606477051128</v>
       </c>
       <c r="D18" t="n">
-        <v>126.9474033983033</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8858455217234</v>
       </c>
       <c r="H18" t="n">
-        <v>97.39669409571536</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>46.62311178695204</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.1445213099196</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>193.9718079957399</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8403006767461</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>43.50831945380102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4419002931159</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>65.34996214444338</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>380.1755759643997</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>337.6361713017743</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0661072569077</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>99.76882660971486</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.20287667141744</v>
+        <v>44.45022224585168</v>
       </c>
       <c r="S20" t="n">
-        <v>74.37364275084721</v>
+        <v>146.9382674488654</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5254541783477</v>
+        <v>211.1698774804723</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>232.4677438091876</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>337.6361713017743</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.1616313140285</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>96.3678262701241</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8858455217234</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>193.9718079957399</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8403006767461</v>
+        <v>225.845482630877</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>98.70339864828924</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.7839247910126</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>70.29009246917028</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>69.58153213348638</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>86.18875797621878</v>
+        <v>86.1887579762188</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>37.30041816355184</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.17644954995815</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3243905058147</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>216.4197047306833</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>15.63184711552114</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>83.83369232361808</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>13.04911722935275</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19847691108355</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>208.8394362011767</v>
       </c>
       <c r="H29" t="n">
-        <v>214.4382182077214</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>134.680037091694</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>27.25699312606301</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>39.48192853519503</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.8904069722262</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>45.5171185416664</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>236.7291676021952</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>51.30292974753845</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>37.49635039626048</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.11479453445426</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
-        <v>207.1759613505315</v>
+        <v>134.190793085759</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>76.78114155358338</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>112.2341173583375</v>
       </c>
       <c r="T36" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8205739680685</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>13.84443721704874</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>185.6279506608896</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>83.39506259572222</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>80.9810496925882</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3599,10 +3599,10 @@
         <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.0695199852411</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>163.6298574568143</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.09929350958866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>308.8415104105434</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T41" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>20.27839300797753</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3824,13 +3824,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>99.54655199667701</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>191.2206015309412</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8205739680685</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>125.0721477169157</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.2886548806407</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>265.2935007941198</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>259.1956730656766</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>96.35676199847288</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>178.6101171214125</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>5.795970478952532</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>220.013305673653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.850526024831893</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="C2" t="n">
         <v>5.850526024831893</v>
       </c>
       <c r="D2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K2" t="n">
         <v>3.98360056216997</v>
@@ -4357,25 +4357,25 @@
         <v>156.7444867130883</v>
       </c>
       <c r="S2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="T2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="U2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="V2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="W2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="X2" t="n">
+        <v>156.7444867130883</v>
+      </c>
+      <c r="Y2" t="n">
         <v>106.4464998170029</v>
-      </c>
-      <c r="T2" t="n">
-        <v>56.14851292091738</v>
-      </c>
-      <c r="U2" t="n">
-        <v>5.850526024831893</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5.850526024831893</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.850526024831893</v>
-      </c>
-      <c r="X2" t="n">
-        <v>5.850526024831893</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5.850526024831893</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G3" t="n">
-        <v>151.23507643877</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H3" t="n">
-        <v>100.9370895426845</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I3" t="n">
-        <v>50.63910264659903</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J3" t="n">
         <v>3.98360056216997</v>
@@ -4424,37 +4424,37 @@
         <v>148.900255631031</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1973125878844</v>
+        <v>170.4401317516709</v>
       </c>
       <c r="P3" t="n">
         <v>199.1800281084985</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T3" t="n">
-        <v>167.8492079802444</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U3" t="n">
-        <v>167.8492079802444</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="V3" t="n">
-        <v>167.8492079802444</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="W3" t="n">
-        <v>167.8492079802444</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="X3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.8492079802444</v>
+        <v>3.98360056216997</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.40151672936742</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="C5" t="n">
-        <v>67.40151672936742</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="D5" t="n">
-        <v>67.40151672936742</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="E5" t="n">
-        <v>67.40151672936742</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="F5" t="n">
-        <v>67.40151672936742</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="G5" t="n">
-        <v>67.40151672936742</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="H5" t="n">
-        <v>67.40151672936742</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I5" t="n">
-        <v>67.40151672936742</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J5" t="n">
-        <v>21.30364498231922</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K5" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L5" t="n">
-        <v>19.82590800208273</v>
+        <v>42.77891399687743</v>
       </c>
       <c r="M5" t="n">
-        <v>69.12296495893617</v>
+        <v>115.5086717162376</v>
       </c>
       <c r="N5" t="n">
-        <v>118.4200219157896</v>
+        <v>188.2384294355977</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7444867130885</v>
+        <v>249.0477644106464</v>
       </c>
       <c r="P5" t="n">
-        <v>156.7444867130885</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.4464998170029</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="R5" t="n">
-        <v>106.4464998170029</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="S5" t="n">
-        <v>106.4464998170029</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="T5" t="n">
-        <v>106.4464998170029</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="U5" t="n">
-        <v>106.4464998170029</v>
+        <v>192.2396576784737</v>
       </c>
       <c r="V5" t="n">
-        <v>106.4464998170029</v>
+        <v>118.033191277739</v>
       </c>
       <c r="W5" t="n">
-        <v>67.40151672936742</v>
+        <v>118.033191277739</v>
       </c>
       <c r="X5" t="n">
-        <v>67.40151672936742</v>
+        <v>43.82672487700421</v>
       </c>
       <c r="Y5" t="n">
-        <v>67.40151672936742</v>
+        <v>43.82672487700421</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199.1800281084987</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="C6" t="n">
-        <v>199.1800281084987</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="D6" t="n">
-        <v>199.1800281084987</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="E6" t="n">
-        <v>199.1800281084987</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="F6" t="n">
-        <v>199.1800281084987</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="G6" t="n">
-        <v>148.8820412124132</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H6" t="n">
-        <v>98.58405431632764</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I6" t="n">
-        <v>48.2860674202421</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J6" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K6" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L6" t="n">
-        <v>50.30614171732424</v>
+        <v>67.70305091229125</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417768</v>
+        <v>140.4328086316514</v>
       </c>
       <c r="N6" t="n">
-        <v>148.9002556310311</v>
+        <v>213.1625663510115</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516711</v>
+        <v>285.8923240703716</v>
       </c>
       <c r="P6" t="n">
-        <v>199.1800281084987</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084987</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084987</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084987</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1800281084987</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="U6" t="n">
-        <v>199.1800281084987</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="V6" t="n">
-        <v>199.1800281084987</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="W6" t="n">
-        <v>199.1800281084987</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="X6" t="n">
-        <v>199.1800281084987</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.1800281084987</v>
+        <v>80.08361853967295</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="C7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="D7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="E7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="F7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="G7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="M7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="N7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="O7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="P7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="R7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="S7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="T7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="U7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="V7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="W7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="X7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.983600562169975</v>
+        <v>5.877152138938193</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>288.2160725767712</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="C8" t="n">
-        <v>288.2160725767712</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="D8" t="n">
-        <v>194.6151136988902</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="E8" t="n">
-        <v>194.6151136988902</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="F8" t="n">
-        <v>101.0141548210092</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G8" t="n">
-        <v>101.0141548210092</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H8" t="n">
-        <v>101.0141548210092</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I8" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J8" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821451</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940374</v>
+        <v>97.73708609773399</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056148</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N8" t="n">
-        <v>258.6453063018261</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O8" t="n">
-        <v>337.6943058037292</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q8" t="n">
-        <v>346.7673010107287</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="R8" t="n">
-        <v>288.2160725767712</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="S8" t="n">
-        <v>288.2160725767712</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="T8" t="n">
-        <v>288.2160725767712</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="U8" t="n">
-        <v>288.2160725767712</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="V8" t="n">
-        <v>288.2160725767712</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="W8" t="n">
-        <v>288.2160725767712</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="X8" t="n">
-        <v>288.2160725767712</v>
+        <v>432.6813068454354</v>
       </c>
       <c r="Y8" t="n">
-        <v>288.2160725767712</v>
+        <v>348.704346521884</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>191.6351227100635</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C9" t="n">
-        <v>191.6351227100635</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D9" t="n">
-        <v>191.6351227100635</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E9" t="n">
-        <v>191.6351227100635</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F9" t="n">
-        <v>191.6351227100635</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G9" t="n">
-        <v>98.03416383218244</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H9" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I9" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J9" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K9" t="n">
-        <v>28.29609765201163</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>102.6982772648967</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>194.4365770611079</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522524</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O9" t="n">
-        <v>317.2247932514005</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P9" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q9" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R9" t="n">
-        <v>285.2360815879445</v>
+        <v>365.5257991978635</v>
       </c>
       <c r="S9" t="n">
-        <v>285.2360815879445</v>
+        <v>365.5257991978635</v>
       </c>
       <c r="T9" t="n">
-        <v>285.2360815879445</v>
+        <v>348.704346521884</v>
       </c>
       <c r="U9" t="n">
-        <v>285.2360815879445</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="V9" t="n">
-        <v>285.2360815879445</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="W9" t="n">
-        <v>285.2360815879445</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X9" t="n">
-        <v>285.2360815879445</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y9" t="n">
-        <v>191.6351227100635</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>133.0228471103738</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="C11" t="n">
-        <v>133.0228471103738</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="D11" t="n">
-        <v>133.0228471103738</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="E11" t="n">
-        <v>133.0228471103738</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="F11" t="n">
-        <v>133.0228471103738</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G11" t="n">
-        <v>133.0228471103738</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H11" t="n">
-        <v>133.0228471103738</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J11" t="n">
         <v>21.03371160678478</v>
@@ -5053,40 +5053,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O11" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R11" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S11" t="n">
-        <v>511.8624171433432</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T11" t="n">
-        <v>322.4426321268585</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U11" t="n">
-        <v>133.0228471103738</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V11" t="n">
-        <v>133.0228471103738</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W11" t="n">
-        <v>133.0228471103738</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X11" t="n">
-        <v>133.0228471103738</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y11" t="n">
-        <v>133.0228471103738</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.8192732198758</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="C12" t="n">
-        <v>598.8192732198758</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="D12" t="n">
-        <v>449.8848635586245</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="E12" t="n">
-        <v>449.8848635586245</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="F12" t="n">
-        <v>303.3503055855094</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="G12" t="n">
-        <v>165.8111244079586</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="H12" t="n">
-        <v>63.95076344761543</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="I12" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K12" t="n">
         <v>67.13418877024208</v>
@@ -5132,40 +5132,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P12" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S12" t="n">
-        <v>598.8192732198758</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="T12" t="n">
-        <v>598.8192732198758</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="U12" t="n">
-        <v>598.8192732198758</v>
+        <v>487.5180226099433</v>
       </c>
       <c r="V12" t="n">
-        <v>598.8192732198758</v>
+        <v>298.0982375934585</v>
       </c>
       <c r="W12" t="n">
-        <v>598.8192732198758</v>
+        <v>108.6784525769737</v>
       </c>
       <c r="X12" t="n">
-        <v>598.8192732198758</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="Y12" t="n">
-        <v>598.8192732198758</v>
+        <v>30.53661367296054</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J13" t="n">
-        <v>29.24882464404147</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M13" t="n">
         <v>42.98993985170716</v>
@@ -5229,22 +5229,22 @@
         <v>67.74542702828987</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>710.0001061843502</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C14" t="n">
-        <v>710.0001061843502</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D14" t="n">
-        <v>710.0001061843502</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E14" t="n">
-        <v>710.0001061843502</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F14" t="n">
-        <v>520.5803211678656</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G14" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678493</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058943</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N14" t="n">
         <v>509.4952041123827</v>
       </c>
       <c r="O14" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S14" t="n">
-        <v>710.0001061843502</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T14" t="n">
-        <v>710.0001061843502</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="U14" t="n">
-        <v>710.0001061843502</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="V14" t="n">
-        <v>710.0001061843502</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W14" t="n">
-        <v>710.0001061843502</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X14" t="n">
-        <v>710.0001061843502</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y14" t="n">
-        <v>710.0001061843502</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.76436616683856</v>
+        <v>348.6925312598881</v>
       </c>
       <c r="C15" t="n">
-        <v>51.76436616683856</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D15" t="n">
-        <v>15.00204697330559</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E15" t="n">
         <v>15.00204697330559</v>
@@ -5384,25 +5384,25 @@
         <v>750.1023486652797</v>
       </c>
       <c r="S15" t="n">
-        <v>598.819273219876</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T15" t="n">
-        <v>598.819273219876</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U15" t="n">
-        <v>409.3994882033913</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V15" t="n">
-        <v>409.3994882033913</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W15" t="n">
-        <v>409.3994882033913</v>
+        <v>538.1123162763729</v>
       </c>
       <c r="X15" t="n">
-        <v>219.9797031869066</v>
+        <v>348.6925312598881</v>
       </c>
       <c r="Y15" t="n">
-        <v>219.9797031869066</v>
+        <v>348.6925312598881</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D16" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E16" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F16" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G16" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H16" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>67.74542702828985</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
-        <v>29.24882464404146</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M16" t="n">
         <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396333</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>131.1906386122175</v>
+        <v>166.5686932565516</v>
       </c>
       <c r="C17" t="n">
-        <v>131.1906386122175</v>
+        <v>166.5686932565516</v>
       </c>
       <c r="D17" t="n">
-        <v>131.1906386122175</v>
+        <v>166.5686932565516</v>
       </c>
       <c r="E17" t="n">
-        <v>131.1906386122175</v>
+        <v>166.5686932565516</v>
       </c>
       <c r="F17" t="n">
-        <v>131.1906386122175</v>
+        <v>166.5686932565516</v>
       </c>
       <c r="G17" t="n">
-        <v>131.1906386122175</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="H17" t="n">
-        <v>131.1906386122175</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="I17" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="J17" t="n">
-        <v>92.46418127429706</v>
+        <v>76.69148555090112</v>
       </c>
       <c r="K17" t="n">
-        <v>236.1997673425843</v>
+        <v>201.8883326102887</v>
       </c>
       <c r="L17" t="n">
-        <v>451.418233688176</v>
+        <v>394.1078539079007</v>
       </c>
       <c r="M17" t="n">
-        <v>722.5596831006912</v>
+        <v>639.6585455322493</v>
       </c>
       <c r="N17" t="n">
-        <v>1002.702293013192</v>
+        <v>893.7963124412571</v>
       </c>
       <c r="O17" t="n">
-        <v>1253.897754396959</v>
+        <v>1120.436137987357</v>
       </c>
       <c r="P17" t="n">
-        <v>1433.786268216655</v>
+        <v>1279.366984734317</v>
       </c>
       <c r="Q17" t="n">
-        <v>1520.702303857599</v>
+        <v>1350.544685207097</v>
       </c>
       <c r="R17" t="n">
-        <v>1485.143842573339</v>
+        <v>1305.645470817348</v>
       </c>
       <c r="S17" t="n">
-        <v>1340.109843009397</v>
+        <v>1305.645470817348</v>
       </c>
       <c r="T17" t="n">
-        <v>1127.457869091874</v>
+        <v>1092.342564271416</v>
       </c>
       <c r="U17" t="n">
-        <v>873.8054190695049</v>
+        <v>838.6782182786822</v>
       </c>
       <c r="V17" t="n">
-        <v>542.7425317259342</v>
+        <v>507.6153309351115</v>
       </c>
       <c r="W17" t="n">
-        <v>189.9738764558201</v>
+        <v>166.5686932565516</v>
       </c>
       <c r="X17" t="n">
-        <v>131.1906386122175</v>
+        <v>166.5686932565516</v>
       </c>
       <c r="Y17" t="n">
-        <v>131.1906386122175</v>
+        <v>166.5686932565516</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>304.1182978761123</v>
+        <v>474.24399591107</v>
       </c>
       <c r="C18" t="n">
-        <v>304.1182978761123</v>
+        <v>459.7382911584308</v>
       </c>
       <c r="D18" t="n">
-        <v>175.8885974737857</v>
+        <v>310.8038814971795</v>
       </c>
       <c r="E18" t="n">
-        <v>175.8885974737857</v>
+        <v>310.8038814971795</v>
       </c>
       <c r="F18" t="n">
-        <v>175.8885974737857</v>
+        <v>164.2693235240645</v>
       </c>
       <c r="G18" t="n">
-        <v>175.8885974737857</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="H18" t="n">
-        <v>77.50809838720454</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="I18" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="J18" t="n">
-        <v>48.55283455759698</v>
+        <v>37.78246690495266</v>
       </c>
       <c r="K18" t="n">
-        <v>157.7097378993241</v>
+        <v>134.3476259009996</v>
       </c>
       <c r="L18" t="n">
-        <v>350.8072063959837</v>
+        <v>310.513940207125</v>
       </c>
       <c r="M18" t="n">
-        <v>595.4997124846635</v>
+        <v>535.4485879464025</v>
       </c>
       <c r="N18" t="n">
-        <v>861.077146019982</v>
+        <v>780.7452314131526</v>
       </c>
       <c r="O18" t="n">
-        <v>1081.808817742999</v>
+        <v>982.923942397377</v>
       </c>
       <c r="P18" t="n">
-        <v>1239.63237810537</v>
+        <v>1125.857116108956</v>
       </c>
       <c r="Q18" t="n">
-        <v>1295.21405221267</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="R18" t="n">
-        <v>1295.21405221267</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="S18" t="n">
-        <v>1150.623626647095</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="T18" t="n">
-        <v>954.692507459479</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="U18" t="n">
-        <v>726.5709916243819</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="V18" t="n">
-        <v>726.5709916243819</v>
+        <v>936.3328528448044</v>
       </c>
       <c r="W18" t="n">
-        <v>472.3336348961803</v>
+        <v>682.0954961166028</v>
       </c>
       <c r="X18" t="n">
-        <v>472.3336348961803</v>
+        <v>474.24399591107</v>
       </c>
       <c r="Y18" t="n">
-        <v>472.3336348961803</v>
+        <v>474.24399591107</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.36184350523382</v>
+        <v>174.9239872865351</v>
       </c>
       <c r="C19" t="n">
-        <v>74.36184350523382</v>
+        <v>174.9239872865351</v>
       </c>
       <c r="D19" t="n">
-        <v>74.36184350523382</v>
+        <v>174.9239872865351</v>
       </c>
       <c r="E19" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="F19" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="G19" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="H19" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="I19" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="J19" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="K19" t="n">
-        <v>50.84789001160325</v>
+        <v>39.84944722784394</v>
       </c>
       <c r="L19" t="n">
-        <v>106.9019728236737</v>
+        <v>86.18417328111988</v>
       </c>
       <c r="M19" t="n">
-        <v>169.2614268008295</v>
+        <v>138.2959283105018</v>
       </c>
       <c r="N19" t="n">
-        <v>237.9956382485896</v>
+        <v>197.0261081867326</v>
       </c>
       <c r="O19" t="n">
-        <v>281.1697185574764</v>
+        <v>230.9598461398816</v>
       </c>
       <c r="P19" t="n">
-        <v>299.0506316800984</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="Q19" t="n">
-        <v>299.0506316800984</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="R19" t="n">
-        <v>299.0506316800984</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="S19" t="n">
-        <v>299.0506316800984</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="T19" t="n">
-        <v>74.36184350523382</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="U19" t="n">
-        <v>74.36184350523382</v>
+        <v>174.9239872865351</v>
       </c>
       <c r="V19" t="n">
-        <v>74.36184350523382</v>
+        <v>174.9239872865351</v>
       </c>
       <c r="W19" t="n">
-        <v>74.36184350523382</v>
+        <v>174.9239872865351</v>
       </c>
       <c r="X19" t="n">
-        <v>74.36184350523382</v>
+        <v>174.9239872865351</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.36184350523382</v>
+        <v>174.9239872865351</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1197.366976988293</v>
+        <v>368.0575313827018</v>
       </c>
       <c r="C20" t="n">
-        <v>828.4044600478817</v>
+        <v>368.0575313827018</v>
       </c>
       <c r="D20" t="n">
-        <v>828.4044600478817</v>
+        <v>368.0575313827018</v>
       </c>
       <c r="E20" t="n">
-        <v>828.4044600478817</v>
+        <v>368.0575313827018</v>
       </c>
       <c r="F20" t="n">
-        <v>444.3887267505082</v>
+        <v>368.0575313827018</v>
       </c>
       <c r="G20" t="n">
-        <v>444.3887267505082</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="H20" t="n">
-        <v>131.1906386122175</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="I20" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="J20" t="n">
-        <v>92.46418127429683</v>
+        <v>76.69148555090135</v>
       </c>
       <c r="K20" t="n">
-        <v>236.1997673425841</v>
+        <v>201.8883326102888</v>
       </c>
       <c r="L20" t="n">
-        <v>451.4182336881763</v>
+        <v>394.1078539079007</v>
       </c>
       <c r="M20" t="n">
-        <v>722.559683100691</v>
+        <v>639.6585455322493</v>
       </c>
       <c r="N20" t="n">
-        <v>1002.702293013191</v>
+        <v>893.7963124412571</v>
       </c>
       <c r="O20" t="n">
-        <v>1253.897754396959</v>
+        <v>1120.436137987357</v>
       </c>
       <c r="P20" t="n">
-        <v>1433.786268216655</v>
+        <v>1279.366984734317</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.702303857599</v>
+        <v>1350.544685207097</v>
       </c>
       <c r="R20" t="n">
-        <v>1485.143842573339</v>
+        <v>1305.645470817348</v>
       </c>
       <c r="S20" t="n">
-        <v>1410.018950905816</v>
+        <v>1157.222978444757</v>
       </c>
       <c r="T20" t="n">
-        <v>1197.366976988293</v>
+        <v>943.920071898825</v>
       </c>
       <c r="U20" t="n">
-        <v>1197.366976988293</v>
+        <v>709.1041690612617</v>
       </c>
       <c r="V20" t="n">
-        <v>1197.366976988293</v>
+        <v>709.1041690612617</v>
       </c>
       <c r="W20" t="n">
-        <v>1197.366976988293</v>
+        <v>709.1041690612617</v>
       </c>
       <c r="X20" t="n">
-        <v>1197.366976988293</v>
+        <v>368.0575313827018</v>
       </c>
       <c r="Y20" t="n">
-        <v>1197.366976988293</v>
+        <v>368.0575313827018</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.41404607715198</v>
+        <v>567.3825751593261</v>
       </c>
       <c r="C21" t="n">
-        <v>30.41404607715198</v>
+        <v>470.041336502635</v>
       </c>
       <c r="D21" t="n">
-        <v>30.41404607715198</v>
+        <v>470.041336502635</v>
       </c>
       <c r="E21" t="n">
-        <v>30.41404607715198</v>
+        <v>310.8038814971795</v>
       </c>
       <c r="F21" t="n">
-        <v>30.41404607715198</v>
+        <v>164.2693235240645</v>
       </c>
       <c r="G21" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="H21" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="I21" t="n">
-        <v>30.41404607715198</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="J21" t="n">
-        <v>48.55283455759701</v>
+        <v>37.78246690495266</v>
       </c>
       <c r="K21" t="n">
-        <v>157.7097378993242</v>
+        <v>134.3476259009996</v>
       </c>
       <c r="L21" t="n">
-        <v>350.8072063959838</v>
+        <v>310.513940207125</v>
       </c>
       <c r="M21" t="n">
-        <v>595.4997124846637</v>
+        <v>535.4485879464025</v>
       </c>
       <c r="N21" t="n">
-        <v>861.0771460199824</v>
+        <v>780.7452314131526</v>
       </c>
       <c r="O21" t="n">
-        <v>1081.808817742999</v>
+        <v>982.923942397377</v>
       </c>
       <c r="P21" t="n">
-        <v>1239.632378105371</v>
+        <v>1125.857116108956</v>
       </c>
       <c r="Q21" t="n">
-        <v>1295.214052212671</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="R21" t="n">
-        <v>1295.214052212671</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="S21" t="n">
-        <v>1295.214052212671</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="T21" t="n">
-        <v>1099.282933025055</v>
+        <v>1171.484961076547</v>
       </c>
       <c r="U21" t="n">
-        <v>871.1614171899579</v>
+        <v>943.3582109443481</v>
       </c>
       <c r="V21" t="n">
-        <v>636.0093089582151</v>
+        <v>943.3582109443481</v>
       </c>
       <c r="W21" t="n">
-        <v>381.7719522300135</v>
+        <v>943.3582109443481</v>
       </c>
       <c r="X21" t="n">
-        <v>381.7719522300135</v>
+        <v>943.3582109443481</v>
       </c>
       <c r="Y21" t="n">
-        <v>174.0116534650596</v>
+        <v>735.5979121793941</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1520.702303857599</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="C22" t="n">
-        <v>1351.766120929692</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="D22" t="n">
-        <v>1252.065718254652</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="E22" t="n">
-        <v>1252.065718254652</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="F22" t="n">
-        <v>1252.065718254652</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="G22" t="n">
-        <v>1252.065718254652</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="H22" t="n">
-        <v>1252.065718254652</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="I22" t="n">
-        <v>1252.065718254652</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="J22" t="n">
-        <v>1252.065718254652</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="K22" t="n">
-        <v>1272.499562189104</v>
+        <v>39.84944722784394</v>
       </c>
       <c r="L22" t="n">
-        <v>1328.553645001174</v>
+        <v>86.18417328111988</v>
       </c>
       <c r="M22" t="n">
-        <v>1390.91309897833</v>
+        <v>138.2959283105018</v>
       </c>
       <c r="N22" t="n">
-        <v>1459.64731042609</v>
+        <v>197.0261081867326</v>
       </c>
       <c r="O22" t="n">
-        <v>1502.821390734977</v>
+        <v>230.9598461398816</v>
       </c>
       <c r="P22" t="n">
-        <v>1520.702303857599</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="Q22" t="n">
-        <v>1520.702303857599</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="R22" t="n">
-        <v>1520.702303857599</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="S22" t="n">
-        <v>1520.702303857599</v>
+        <v>240.9340500587001</v>
       </c>
       <c r="T22" t="n">
-        <v>1520.702303857599</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="U22" t="n">
-        <v>1520.702303857599</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="V22" t="n">
-        <v>1520.702303857599</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="W22" t="n">
-        <v>1520.702303857599</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="X22" t="n">
-        <v>1520.702303857599</v>
+        <v>27.01089370414194</v>
       </c>
       <c r="Y22" t="n">
-        <v>1520.702303857599</v>
+        <v>27.01089370414194</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>770.5974120852552</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="C23" t="n">
-        <v>401.6348951448435</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="D23" t="n">
-        <v>43.36919653809306</v>
+        <v>845.18849443293</v>
       </c>
       <c r="E23" t="n">
-        <v>43.36919653809306</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F23" t="n">
-        <v>43.36919653809306</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I23" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J23" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M23" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N23" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O23" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P23" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T23" t="n">
-        <v>2098.175451012242</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U23" t="n">
-        <v>1844.568286674752</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V23" t="n">
-        <v>1513.505399331181</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W23" t="n">
-        <v>1160.736744061067</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="X23" t="n">
-        <v>1160.736744061067</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="Y23" t="n">
-        <v>770.5974120852552</v>
+        <v>1274.454286442883</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>130.4285480292232</v>
       </c>
       <c r="G24" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I24" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J24" t="n">
         <v>89.55356510562316</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.5020259430747</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="C25" t="n">
-        <v>211.5020259430747</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D25" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E25" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F25" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K25" t="n">
         <v>92.71685897981521</v>
@@ -6171,28 +6171,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R25" t="n">
-        <v>500.9191959800353</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S25" t="n">
-        <v>500.9191959800353</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T25" t="n">
-        <v>500.9191959800353</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U25" t="n">
-        <v>500.9191959800353</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V25" t="n">
-        <v>500.9191959800353</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5020259430747</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X25" t="n">
-        <v>211.5020259430747</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.5020259430747</v>
+        <v>231.1630260146226</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1241.481122113637</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="C26" t="n">
-        <v>1241.481122113637</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="D26" t="n">
-        <v>1241.481122113637</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E26" t="n">
-        <v>855.6928695153922</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F26" t="n">
-        <v>444.7069647257846</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G26" t="n">
         <v>43.36919653809304</v>
@@ -6253,25 +6253,25 @@
         <v>2168.459826904652</v>
       </c>
       <c r="S26" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T26" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U26" t="n">
-        <v>1572.544009457207</v>
+        <v>1949.854064550426</v>
       </c>
       <c r="V26" t="n">
-        <v>1241.481122113637</v>
+        <v>1618.791177206856</v>
       </c>
       <c r="W26" t="n">
-        <v>1241.481122113637</v>
+        <v>1618.791177206856</v>
       </c>
       <c r="X26" t="n">
-        <v>1241.481122113637</v>
+        <v>1618.791177206856</v>
       </c>
       <c r="Y26" t="n">
-        <v>1241.481122113637</v>
+        <v>1228.651845231044</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>757.2091457556257</v>
+        <v>501.8069478626801</v>
       </c>
       <c r="C27" t="n">
-        <v>582.7561164744988</v>
+        <v>501.8069478626801</v>
       </c>
       <c r="D27" t="n">
-        <v>433.8217068132475</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E27" t="n">
-        <v>274.584251807792</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F27" t="n">
-        <v>128.049693834677</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="G27" t="n">
         <v>43.36919653809304</v>
@@ -6338,19 +6338,19 @@
         <v>1595.273638474382</v>
       </c>
       <c r="U27" t="n">
-        <v>1595.273638474382</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="V27" t="n">
-        <v>1595.273638474382</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="W27" t="n">
-        <v>1341.036281746181</v>
+        <v>877.782583647702</v>
       </c>
       <c r="X27" t="n">
-        <v>1133.184781540648</v>
+        <v>877.782583647702</v>
       </c>
       <c r="Y27" t="n">
-        <v>925.4244827756938</v>
+        <v>670.0222848827482</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.36919653809304</v>
+        <v>507.1084205463034</v>
       </c>
       <c r="C28" t="n">
-        <v>43.36919653809304</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="D28" t="n">
-        <v>43.36919653809304</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E28" t="n">
-        <v>43.36919653809304</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F28" t="n">
         <v>43.36919653809304</v>
@@ -6414,22 +6414,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T28" t="n">
-        <v>296.6854897332227</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U28" t="n">
-        <v>296.6854897332227</v>
+        <v>507.1084205463034</v>
       </c>
       <c r="V28" t="n">
-        <v>264.1617756816231</v>
+        <v>507.1084205463034</v>
       </c>
       <c r="W28" t="n">
-        <v>264.1617756816231</v>
+        <v>507.1084205463034</v>
       </c>
       <c r="X28" t="n">
-        <v>264.1617756816231</v>
+        <v>507.1084205463034</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.36919653809304</v>
+        <v>507.1084205463034</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>707.8891122510345</v>
+        <v>1778.320494928841</v>
       </c>
       <c r="C29" t="n">
-        <v>338.9265953106228</v>
+        <v>1409.357977988429</v>
       </c>
       <c r="D29" t="n">
-        <v>338.9265953106228</v>
+        <v>1051.092279381679</v>
       </c>
       <c r="E29" t="n">
-        <v>338.9265953106228</v>
+        <v>665.3040267834347</v>
       </c>
       <c r="F29" t="n">
-        <v>338.9265953106228</v>
+        <v>254.3181219938271</v>
       </c>
       <c r="G29" t="n">
-        <v>338.9265953106228</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H29" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I29" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K29" t="n">
-        <v>366.8168396232721</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M29" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N29" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O29" t="n">
         <v>1761.960612545596</v>
@@ -6499,16 +6499,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V29" t="n">
-        <v>1837.396939561082</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W29" t="n">
-        <v>1484.628284290968</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X29" t="n">
-        <v>1484.628284290968</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="Y29" t="n">
-        <v>1094.488952315156</v>
+        <v>1778.320494928841</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>700.0609647479944</v>
+        <v>325.9441960179697</v>
       </c>
       <c r="C30" t="n">
-        <v>525.6079354668674</v>
+        <v>325.9441960179697</v>
       </c>
       <c r="D30" t="n">
-        <v>376.6735258056161</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E30" t="n">
-        <v>217.4360708001606</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F30" t="n">
-        <v>70.90151282704559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G30" t="n">
         <v>43.36919653809306</v>
@@ -6569,25 +6569,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S30" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T30" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U30" t="n">
-        <v>1538.125457466751</v>
+        <v>1399.160796968469</v>
       </c>
       <c r="V30" t="n">
-        <v>1538.125457466751</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W30" t="n">
-        <v>1283.888100738549</v>
+        <v>909.7713320085245</v>
       </c>
       <c r="X30" t="n">
-        <v>1076.036600533016</v>
+        <v>701.9198318029917</v>
       </c>
       <c r="Y30" t="n">
-        <v>868.2763017680625</v>
+        <v>494.1595330380378</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1691.539676402147</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="C31" t="n">
-        <v>1691.539676402147</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="D31" t="n">
-        <v>1691.539676402147</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="E31" t="n">
-        <v>1691.539676402147</v>
+        <v>83.24993243222946</v>
       </c>
       <c r="F31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J31" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K31" t="n">
-        <v>1740.887338843869</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L31" t="n">
-        <v>1833.941154665948</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M31" t="n">
-        <v>1935.311639356787</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N31" t="n">
-        <v>2042.1292864018</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O31" t="n">
-        <v>2120.47958346742</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P31" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q31" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R31" t="n">
-        <v>2059.295330676735</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S31" t="n">
-        <v>1860.115845060961</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T31" t="n">
-        <v>1691.539676402147</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.539676402147</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V31" t="n">
-        <v>1691.539676402147</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W31" t="n">
-        <v>1691.539676402147</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X31" t="n">
-        <v>1691.539676402147</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="Y31" t="n">
-        <v>1691.539676402147</v>
+        <v>231.1630260146226</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1781.859986840531</v>
+        <v>886.1202413417695</v>
       </c>
       <c r="C32" t="n">
-        <v>1412.897469900119</v>
+        <v>886.1202413417695</v>
       </c>
       <c r="D32" t="n">
-        <v>1054.631771293369</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E32" t="n">
-        <v>668.8435186951247</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F32" t="n">
-        <v>668.8435186951247</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G32" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H32" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I32" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J32" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M32" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N32" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O32" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P32" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q32" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R32" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="U32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="V32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="W32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="X32" t="n">
-        <v>2168.459826904653</v>
+        <v>1662.859413381703</v>
       </c>
       <c r="Y32" t="n">
-        <v>2168.459826904653</v>
+        <v>1272.720081405891</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>668.0722163871719</v>
+        <v>809.4046422439259</v>
       </c>
       <c r="C33" t="n">
-        <v>668.0722163871719</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D33" t="n">
-        <v>519.1378067259207</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E33" t="n">
-        <v>359.9003517204652</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F33" t="n">
-        <v>213.3657937473501</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="G33" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H33" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I33" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J33" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K33" t="n">
         <v>246.6448318504519</v>
@@ -6803,28 +6803,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R33" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S33" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T33" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U33" t="n">
-        <v>1506.136709105928</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V33" t="n">
-        <v>1506.136709105928</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W33" t="n">
-        <v>1251.899352377727</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X33" t="n">
-        <v>1044.047852172194</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y33" t="n">
-        <v>836.28755340724</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1859.672505807129</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="C34" t="n">
-        <v>1859.672505807129</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="D34" t="n">
-        <v>1859.672505807129</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E34" t="n">
-        <v>1859.672505807129</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F34" t="n">
-        <v>1859.672505807129</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G34" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H34" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I34" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J34" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K34" t="n">
-        <v>1740.887338843869</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L34" t="n">
-        <v>1833.941154665948</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M34" t="n">
-        <v>1935.311639356787</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N34" t="n">
-        <v>2042.1292864018</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O34" t="n">
-        <v>2120.47958346742</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T34" t="n">
-        <v>2168.459826904653</v>
+        <v>332.4955175640695</v>
       </c>
       <c r="U34" t="n">
-        <v>2168.459826904653</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="V34" t="n">
-        <v>2168.459826904653</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="W34" t="n">
-        <v>2168.459826904653</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="X34" t="n">
-        <v>2168.459826904653</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="Y34" t="n">
-        <v>1947.667247761123</v>
+        <v>43.36919653809304</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1049.412001754765</v>
+        <v>1391.720654864718</v>
       </c>
       <c r="C35" t="n">
-        <v>1049.412001754765</v>
+        <v>1391.720654864718</v>
       </c>
       <c r="D35" t="n">
-        <v>1049.412001754765</v>
+        <v>1391.720654864718</v>
       </c>
       <c r="E35" t="n">
-        <v>663.6237491565203</v>
+        <v>1005.932402266474</v>
       </c>
       <c r="F35" t="n">
-        <v>252.6378443669127</v>
+        <v>594.9464974768666</v>
       </c>
       <c r="G35" t="n">
-        <v>252.6378443669127</v>
+        <v>178.9154521802739</v>
       </c>
       <c r="H35" t="n">
         <v>43.36919653809304</v>
@@ -6952,7 +6952,7 @@
         <v>1417.286540135166</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P35" t="n">
         <v>2021.630958172446</v>
@@ -6964,25 +6964,25 @@
         <v>2168.459826904652</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.325171642783</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="X35" t="n">
-        <v>1826.151173794698</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="Y35" t="n">
-        <v>1436.011841818886</v>
+        <v>1778.32049492884</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>267.4604631511913</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="C36" t="n">
-        <v>267.4604631511913</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D36" t="n">
-        <v>267.4604631511913</v>
+        <v>202.6066515435485</v>
       </c>
       <c r="E36" t="n">
-        <v>267.4604631511913</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F36" t="n">
-        <v>120.9259051780762</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G36" t="n">
         <v>43.36919653809304</v>
@@ -7040,28 +7040,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R36" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S36" t="n">
-        <v>1595.273638474382</v>
+        <v>1652.859252022035</v>
       </c>
       <c r="T36" t="n">
-        <v>1400.563316948358</v>
+        <v>1652.859252022035</v>
       </c>
       <c r="U36" t="n">
-        <v>1172.461727081622</v>
+        <v>1424.757662155299</v>
       </c>
       <c r="V36" t="n">
-        <v>937.3096188498796</v>
+        <v>1189.605553923556</v>
       </c>
       <c r="W36" t="n">
-        <v>683.072262121678</v>
+        <v>935.3681971953545</v>
       </c>
       <c r="X36" t="n">
-        <v>475.2207619161452</v>
+        <v>727.5166969898216</v>
       </c>
       <c r="Y36" t="n">
-        <v>267.4604631511913</v>
+        <v>519.7563982248678</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1691.539676402146</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C37" t="n">
-        <v>1691.539676402146</v>
+        <v>506.3050670233781</v>
       </c>
       <c r="D37" t="n">
-        <v>1691.539676402146</v>
+        <v>506.3050670233781</v>
       </c>
       <c r="E37" t="n">
-        <v>1691.539676402146</v>
+        <v>358.391973440985</v>
       </c>
       <c r="F37" t="n">
-        <v>1691.539676402146</v>
+        <v>211.5020259430746</v>
       </c>
       <c r="G37" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H37" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I37" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J37" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K37" t="n">
-        <v>1740.887338843868</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L37" t="n">
-        <v>1833.941154665947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M37" t="n">
-        <v>1935.311639356786</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N37" t="n">
-        <v>2042.129286401799</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O37" t="n">
-        <v>2120.479583467419</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P37" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q37" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R37" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S37" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T37" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U37" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V37" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W37" t="n">
-        <v>1879.042656867691</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X37" t="n">
-        <v>1691.539676402146</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y37" t="n">
-        <v>1691.539676402146</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1156.385664683499</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="C38" t="n">
-        <v>787.4231477430878</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="D38" t="n">
-        <v>429.1574491363373</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="E38" t="n">
-        <v>43.36919653809306</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="F38" t="n">
-        <v>43.36919653809306</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809306</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H38" t="n">
         <v>43.36919653809306</v>
@@ -7201,25 +7201,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S38" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T38" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U38" t="n">
-        <v>1874.048392091192</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V38" t="n">
-        <v>1542.985504747621</v>
+        <v>1954.52613154926</v>
       </c>
       <c r="W38" t="n">
-        <v>1542.985504747621</v>
+        <v>1954.52613154926</v>
       </c>
       <c r="X38" t="n">
-        <v>1542.985504747621</v>
+        <v>1954.52613154926</v>
       </c>
       <c r="Y38" t="n">
-        <v>1542.985504747621</v>
+        <v>1564.386799573449</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>928.1625546147302</v>
+        <v>501.2327775772192</v>
       </c>
       <c r="C39" t="n">
-        <v>753.7095253336032</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="D39" t="n">
-        <v>604.7751156723519</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="E39" t="n">
-        <v>445.5376606668964</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F39" t="n">
-        <v>299.0031026937814</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G39" t="n">
-        <v>162.1271089088974</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H39" t="n">
-        <v>66.67174197773053</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I39" t="n">
         <v>43.36919653809306</v>
@@ -7283,22 +7283,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T39" t="n">
-        <v>1766.227047333487</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U39" t="n">
-        <v>1766.227047333487</v>
+        <v>1406.23404150765</v>
       </c>
       <c r="V39" t="n">
-        <v>1766.227047333487</v>
+        <v>1171.081933275907</v>
       </c>
       <c r="W39" t="n">
-        <v>1511.989690605285</v>
+        <v>916.8445765477059</v>
       </c>
       <c r="X39" t="n">
-        <v>1304.138190399752</v>
+        <v>708.993076342173</v>
       </c>
       <c r="Y39" t="n">
-        <v>1096.377891634798</v>
+        <v>501.2327775772192</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J40" t="n">
         <v>43.36919653809306</v>
@@ -7359,25 +7359,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S40" t="n">
-        <v>321.1098614248255</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T40" t="n">
-        <v>321.1098614248255</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U40" t="n">
-        <v>321.1098614248255</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V40" t="n">
-        <v>321.1098614248255</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W40" t="n">
-        <v>321.1098614248255</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X40" t="n">
-        <v>93.12031052680811</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1958.285829056568</v>
+        <v>1625.702614406388</v>
       </c>
       <c r="C41" t="n">
-        <v>1589.323312116156</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="D41" t="n">
-        <v>1231.057613509406</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="E41" t="n">
-        <v>845.2693609111616</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F41" t="n">
-        <v>434.283456121554</v>
+        <v>845.7541926763688</v>
       </c>
       <c r="G41" t="n">
-        <v>122.3223344947425</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H41" t="n">
-        <v>122.3223344947425</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I41" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J41" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K41" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L41" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M41" t="n">
         <v>1038.14846457873</v>
@@ -7432,31 +7432,31 @@
         <v>2021.630958172447</v>
       </c>
       <c r="Q41" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R41" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S41" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T41" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="U41" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="V41" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.285829056568</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="X41" t="n">
-        <v>1958.285829056568</v>
+        <v>2015.8419463822</v>
       </c>
       <c r="Y41" t="n">
-        <v>1958.285829056568</v>
+        <v>1625.702614406388</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>525.9940904859268</v>
+        <v>464.9088565162513</v>
       </c>
       <c r="C42" t="n">
-        <v>351.5410612047998</v>
+        <v>290.4558272351243</v>
       </c>
       <c r="D42" t="n">
-        <v>202.6066515435486</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E42" t="n">
-        <v>43.36919653809306</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I42" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J42" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K42" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L42" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M42" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N42" t="n">
         <v>1166.88538687358</v>
@@ -7508,34 +7508,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P42" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q42" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R42" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S42" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T42" t="n">
-        <v>1573.07492457496</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U42" t="n">
-        <v>1344.973334708224</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="V42" t="n">
-        <v>1109.821226476482</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W42" t="n">
-        <v>1109.821226476482</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X42" t="n">
-        <v>901.9697262709487</v>
+        <v>840.8844923012732</v>
       </c>
       <c r="Y42" t="n">
-        <v>694.2094275059949</v>
+        <v>633.1241935363194</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>362.4220188783357</v>
+        <v>338.6408822103592</v>
       </c>
       <c r="C43" t="n">
-        <v>193.4858359504288</v>
+        <v>169.7046992824523</v>
       </c>
       <c r="D43" t="n">
-        <v>43.36919653809306</v>
+        <v>169.7046992824523</v>
       </c>
       <c r="E43" t="n">
-        <v>43.36919653809306</v>
+        <v>169.7046992824523</v>
       </c>
       <c r="F43" t="n">
-        <v>43.36919653809306</v>
+        <v>169.7046992824523</v>
       </c>
       <c r="G43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J43" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K43" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L43" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M43" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N43" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O43" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P43" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q43" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R43" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S43" t="n">
-        <v>362.4220188783357</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T43" t="n">
-        <v>362.4220188783357</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U43" t="n">
-        <v>362.4220188783357</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V43" t="n">
-        <v>362.4220188783357</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W43" t="n">
-        <v>362.4220188783357</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X43" t="n">
-        <v>362.4220188783357</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y43" t="n">
-        <v>362.4220188783357</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1778.320494928841</v>
+        <v>1524.71333059135</v>
       </c>
       <c r="C44" t="n">
-        <v>1409.357977988429</v>
+        <v>1524.71333059135</v>
       </c>
       <c r="D44" t="n">
-        <v>1409.357977988429</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="E44" t="n">
-        <v>1023.569725390185</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F44" t="n">
-        <v>612.5838206005776</v>
+        <v>845.7541926763688</v>
       </c>
       <c r="G44" t="n">
-        <v>350.7700094231265</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H44" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I44" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J44" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K44" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711864</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N44" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O44" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q44" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R44" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S44" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T44" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U44" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V44" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W44" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X44" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="Y44" t="n">
-        <v>1778.320494928841</v>
+        <v>1524.71333059135</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>671.6177418305251</v>
+        <v>660.4702325826747</v>
       </c>
       <c r="C45" t="n">
-        <v>671.6177418305251</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="D45" t="n">
-        <v>522.6833321692739</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E45" t="n">
-        <v>363.4458771638183</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F45" t="n">
-        <v>216.9113191907033</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="G45" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H45" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I45" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J45" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K45" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L45" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M45" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N45" t="n">
         <v>1166.88538687358</v>
@@ -7745,34 +7745,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P45" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q45" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R45" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S45" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T45" t="n">
-        <v>1529.932324210484</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U45" t="n">
-        <v>1301.830734343749</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="V45" t="n">
-        <v>1301.830734343749</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W45" t="n">
-        <v>1047.593377615547</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X45" t="n">
-        <v>1047.593377615547</v>
+        <v>840.8844923012732</v>
       </c>
       <c r="Y45" t="n">
-        <v>839.8330788505932</v>
+        <v>660.4702325826747</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.36919653809306</v>
+        <v>49.22371217339864</v>
       </c>
       <c r="C46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K46" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L46" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M46" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N46" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O46" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V46" t="n">
-        <v>265.6048588347122</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W46" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036383</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036383</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.36919653809306</v>
+        <v>230.8721770036383</v>
       </c>
     </row>
   </sheetData>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>332.938834636356</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>315.4778847438829</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>352.8347854126476</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22573,7 +22573,7 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K2" t="n">
-        <v>15.29858776791244</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>115.3674336481769</v>
       </c>
       <c r="S2" t="n">
-        <v>122.8695009220968</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T2" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
-        <v>201.4230125321233</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>336.4429316289289</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>120.0419036629528</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H3" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I3" t="n">
-        <v>20.33727340070169</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
         <v>92.6799817290989</v>
@@ -22682,16 +22682,16 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8852226550407</v>
+        <v>182.0257804655494</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>183.0055801223006</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.707320657778</v>
+        <v>413.5725223992679</v>
       </c>
       <c r="H5" t="n">
-        <v>323.1357392253592</v>
+        <v>284.1851595497078</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>143.7717713159392</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>34.19605933636038</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22825,31 +22825,31 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.223610692407874</v>
+        <v>35.46192228085542</v>
       </c>
       <c r="R5" t="n">
-        <v>115.3674336481769</v>
+        <v>106.8999125420449</v>
       </c>
       <c r="S5" t="n">
-        <v>172.6645079492214</v>
+        <v>169.5927926334236</v>
       </c>
       <c r="T5" t="n">
-        <v>216.1119122710508</v>
+        <v>215.5218328944231</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2180195592479</v>
+        <v>177.7428339618397</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>254.2878567334075</v>
       </c>
       <c r="W5" t="n">
-        <v>310.5864354606539</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>296.2666989417417</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>86.6948868618878</v>
+        <v>62.95336872557376</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19623348224739</v>
+        <v>103.294680046134</v>
       </c>
       <c r="I6" t="n">
-        <v>20.33727340070163</v>
+        <v>67.64908349938912</v>
       </c>
       <c r="J6" t="n">
-        <v>2.329504874093367</v>
+        <v>39.37486489346175</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>21.81101977343823</v>
       </c>
       <c r="R6" t="n">
-        <v>92.6799817290989</v>
+        <v>14.73760091989288</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>154.4878321636994</v>
       </c>
       <c r="T6" t="n">
-        <v>196.7240278659264</v>
+        <v>196.4333198433488</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>161.1730326430476</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>178.2305814241922</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>167.2148644222634</v>
       </c>
       <c r="H7" t="n">
-        <v>155.8644016137399</v>
+        <v>155.3268051656304</v>
       </c>
       <c r="I7" t="n">
-        <v>133.9289553808794</v>
+        <v>132.1105821187667</v>
       </c>
       <c r="J7" t="n">
-        <v>76.39903162313584</v>
+        <v>72.12409545038793</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>38.84281376529884</v>
       </c>
       <c r="L7" t="n">
-        <v>28.48717608127421</v>
+        <v>19.49755203998329</v>
       </c>
       <c r="M7" t="n">
-        <v>26.74453801706942</v>
+        <v>17.2662399038262</v>
       </c>
       <c r="N7" t="n">
-        <v>18.17171782551226</v>
+        <v>8.918792456364031</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357805</v>
+        <v>28.75622001580066</v>
       </c>
       <c r="P7" t="n">
-        <v>51.173501012562</v>
+        <v>43.86043031148982</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.57915019604307</v>
+        <v>86.51595910858246</v>
       </c>
       <c r="R7" t="n">
-        <v>145.11520646895</v>
+        <v>142.3964416096969</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5447863772357</v>
+        <v>210.4910313761868</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8878160949084</v>
+        <v>224.6294619736288</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2799939522351</v>
+        <v>286.2766958145166</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>262.0180923315808</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>314.2110964526092</v>
+        <v>294.7633856167877</v>
       </c>
       <c r="G8" t="n">
-        <v>413.4631744246258</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>320.6353766150897</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>46.89118423444745</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>24.91528667358037</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>42.06536668031512</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1010256612668</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>215.0431621354273</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1984878605957</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>303.1007479357377</v>
       </c>
     </row>
     <row r="9">
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>13.01487391389225</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101605001</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516773</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,31 +23144,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.3427387906227</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>153.4011028494393</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>179.3836568158714</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.5823230359959</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.0177464882022</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1658146852775</v>
+        <v>163.507032482248</v>
       </c>
       <c r="H10" t="n">
-        <v>154.8907084131551</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
-        <v>130.6355227555885</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>68.65627904547948</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>33.14412614092828</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>12.20519387026839</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>9.577470677924651</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N10" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>21.823262646183</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P10" t="n">
-        <v>37.92808757638606</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.40871249605685</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R10" t="n">
-        <v>140.1909870721275</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
-        <v>209.6362282325312</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>224.4198858246887</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>241.7035085656169</v>
       </c>
       <c r="G11" t="n">
         <v>413.097833230058</v>
@@ -23278,7 +23278,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>8.630724984277251</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U11" t="n">
-        <v>63.64367339871046</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23342,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>25.82455062718315</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>128.4125646885045</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23439,10 +23439,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>18.95836326784826</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U13" t="n">
         <v>286.2650814934503</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H14" t="n">
-        <v>129.3682389399025</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S14" t="n">
-        <v>119.0745931339333</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871043</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940404</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>111.0503695630411</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23624,22 +23624,22 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377109</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>229.3504382622218</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715764</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>96.39952676377793</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23676,10 +23676,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>18.95836326784828</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.4311451939966</v>
+        <v>274.4161362703776</v>
       </c>
       <c r="H17" t="n">
-        <v>310.0661072569078</v>
+        <v>311.5737486373495</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>105.4442416537262</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>146.9382674488654</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>11.60479741563876</v>
       </c>
       <c r="X17" t="n">
-        <v>311.5356952133025</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>158.3478512832029</v>
       </c>
       <c r="D18" t="n">
-        <v>20.4976621663355</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8070798189336</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.15740496213242</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>49.33500111545968</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.28561341314776</v>
+        <v>55.17599625828842</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.6075596928788</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.2892890521601</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.845482630877</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>102.9256431927681</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7028819012923</v>
+        <v>166.7689164205999</v>
       </c>
       <c r="H19" t="n">
-        <v>150.7748151155418</v>
+        <v>151.3619220235667</v>
       </c>
       <c r="I19" t="n">
-        <v>116.7138713971991</v>
+        <v>118.6997094869194</v>
       </c>
       <c r="J19" t="n">
-        <v>35.9269312177304</v>
+        <v>40.59557173277103</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.64440455708336</v>
+        <v>49.17389507836913</v>
       </c>
       <c r="R19" t="n">
-        <v>119.375845712214</v>
+        <v>122.3449978258042</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5685723516266</v>
+        <v>202.7193739290129</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.7240477847025</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487694951909</v>
+        <v>220.9024092336188</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>26.7004697773117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.4311451939966</v>
+        <v>74.94218652548892</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>311.5737486373495</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>105.4442416537262</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.21001681745514</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1159255221454</v>
+        <v>18.65995872361913</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>32.09492937669478</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.37155233583883</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>76.34067271819164</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8070798189336</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.39669409571536</v>
+        <v>98.15740496213242</v>
       </c>
       <c r="I21" t="n">
-        <v>46.62311178695203</v>
+        <v>49.33500111545968</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.28561341314774</v>
+        <v>55.17599625828842</v>
       </c>
       <c r="S21" t="n">
-        <v>143.1445213099196</v>
+        <v>144.6075596928788</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.2892890521601</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>49.91207436992312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7028819012923</v>
+        <v>166.7689164205999</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7748151155418</v>
+        <v>151.3619220235667</v>
       </c>
       <c r="I22" t="n">
-        <v>116.7138713971991</v>
+        <v>118.6997094869194</v>
       </c>
       <c r="J22" t="n">
-        <v>35.92693121773038</v>
+        <v>40.59557173277103</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.64440455708335</v>
+        <v>49.17389507836913</v>
       </c>
       <c r="R22" t="n">
-        <v>119.375845712214</v>
+        <v>122.3449978258042</v>
       </c>
       <c r="S22" t="n">
-        <v>201.5685723516266</v>
+        <v>202.7193739290129</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4419002931159</v>
+        <v>10.94012299368995</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487694951909</v>
+        <v>286.2523713780622</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>312.4437491943103</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>304.326804756183</v>
@@ -24259,10 +24259,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>138.4907257361175</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>49.31847587081647</v>
+        <v>49.31847587081646</v>
       </c>
       <c r="H24" t="n">
         <v>94.50081326185514</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>129.946402935076</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H25" t="n">
         <v>148.5398113612452</v>
@@ -24411,7 +24411,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R25" t="n">
-        <v>88.89640171568044</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S25" t="n">
         <v>197.1876907596159</v>
@@ -24420,13 +24420,13 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.54634433781212</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>304.326804756183</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>34.65138796343251</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>131.8132184491176</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>51.67354152341717</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>94.50081326185514</v>
@@ -24578,16 +24578,16 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4515011109318</v>
@@ -24654,13 +24654,13 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2350578157167</v>
+        <v>273.1859405863639</v>
       </c>
       <c r="V28" t="n">
-        <v>219.9391664127444</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>203.0312986424501</v>
       </c>
       <c r="H29" t="n">
-        <v>89.88858654846163</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>12.76502847294475</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>108.2502407209722</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H30" t="n">
         <v>94.50081326185514</v>
@@ -24809,7 +24809,7 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>192.7632183107638</v>
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>105.9391194877362</v>
       </c>
       <c r="G31" t="n">
         <v>166.4515011109318</v>
@@ -24885,16 +24885,16 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T31" t="n">
-        <v>54.47741176207643</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>309.1659230790166</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>175.1415672414316</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.0722578696039</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>115.2302539023289</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>98.01088345077477</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S33" t="n">
         <v>137.5750138932992</v>
@@ -25052,10 +25052,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.71718564748303</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25128,10 +25128,10 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3678187343026</v>
+        <v>35.45192755253839</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>97.15084340565159</v>
+        <v>170.136011670424</v>
       </c>
       <c r="I35" t="n">
         <v>78.16360657708299</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
         <v>251.0710926941158</v>
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>58.72609229345187</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185514</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>25.34089653496173</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>153.4023838815791</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.5398113612452</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>40.08170472814754</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>78.16360657708299</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
-        <v>167.6760300983936</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>246.7712087775467</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I39" t="n">
-        <v>13.22994759380775</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,13 +25523,13 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8205739680685</v>
+        <v>62.19071651125424</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T40" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>187.4853598425061</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0292244330834</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
         <v>251.0710926941158</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>349.4527076704915</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25712,13 +25712,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>47.89851356796174</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.5072338470353</v>
@@ -25727,7 +25727,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I42" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S42" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>1.542616779822538</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4515011109318</v>
+        <v>41.37935339401612</v>
       </c>
       <c r="H43" t="n">
         <v>148.5398113612452</v>
@@ -25809,7 +25809,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J43" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R43" t="n">
         <v>108.0728512656386</v>
       </c>
       <c r="S43" t="n">
-        <v>40.89903587897518</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T43" t="n">
         <v>221.3678187343026</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>89.38954082656318</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>152.6750617779502</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T44" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>96.40645631229089</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>27.07257865589187</v>
       </c>
     </row>
     <row r="46">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>161.4508506196753</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26046,7 +26046,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J46" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R46" t="n">
         <v>108.0728512656386</v>
@@ -26082,10 +26082,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>66.50969266293805</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>314318.0455467</v>
+        <v>341002.523762429</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>362616.6230072703</v>
+        <v>379382.0342027747</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.0580613399</v>
+        <v>441595.05806134</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>573513.5818400506</v>
+        <v>544392.7033332888</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>573513.5818400505</v>
+        <v>544392.7033332888</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>684371.1989135398</v>
+        <v>684371.1989135395</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684371.1989135396</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684371.1989135401</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684371.1989135398</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>684371.1989135396</v>
+        <v>684371.1989135395</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>100818.9957413941</v>
       </c>
       <c r="C2" t="n">
-        <v>100818.9957413942</v>
+        <v>109378.1679992695</v>
       </c>
       <c r="D2" t="n">
-        <v>116310.9922853508</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="E2" t="n">
         <v>141643.6978687317</v>
@@ -26328,22 +26328,22 @@
         <v>141643.6978687317</v>
       </c>
       <c r="G2" t="n">
-        <v>183957.1866279407</v>
+        <v>174616.5274842624</v>
       </c>
       <c r="H2" t="n">
-        <v>183957.1866279408</v>
+        <v>174616.5274842624</v>
       </c>
       <c r="I2" t="n">
-        <v>219515.2902175502</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="J2" t="n">
-        <v>219515.2902175502</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="K2" t="n">
         <v>219515.2902175502</v>
       </c>
       <c r="L2" t="n">
-        <v>219515.2902175502</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="M2" t="n">
         <v>219515.2902175502</v>
@@ -26352,7 +26352,7 @@
         <v>219515.2902175503</v>
       </c>
       <c r="O2" t="n">
-        <v>219515.2902175502</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="P2" t="n">
         <v>219515.2902175503</v>
@@ -26368,43 +26368,43 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>38180.34408023355</v>
       </c>
       <c r="D3" t="n">
-        <v>65327.8903793811</v>
+        <v>51164.61695028653</v>
       </c>
       <c r="E3" t="n">
-        <v>101335.4572062673</v>
+        <v>80646.21400928602</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>181739.8658516862</v>
+        <v>141609.5458603404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>147997.8543656406</v>
+        <v>186874.9983095356</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860493</v>
+        <v>13028.56481860496</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6091.744777621107</v>
       </c>
       <c r="L3" t="n">
-        <v>10849.99655702615</v>
+        <v>9781.526363726931</v>
       </c>
       <c r="M3" t="n">
-        <v>23639.6504015541</v>
+        <v>18793.20307042411</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>46361.41245424673</v>
+        <v>36124.2621827812</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>30.96378040239008</v>
+        <v>49.92675977318713</v>
       </c>
       <c r="D4" t="n">
-        <v>67.14558386063672</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
         <v>137.800118072334</v>
@@ -26432,10 +26432,10 @@
         <v>137.800118072334</v>
       </c>
       <c r="G4" t="n">
-        <v>270.7602176271822</v>
+        <v>240.929009110204</v>
       </c>
       <c r="H4" t="n">
-        <v>270.7602176271823</v>
+        <v>240.929009110204</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26456,10 +26456,10 @@
         <v>384.3219252469136</v>
       </c>
       <c r="O4" t="n">
-        <v>384.3219252469136</v>
+        <v>384.3219252469135</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3219252469136</v>
+        <v>384.3219252469135</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>45306.68319048216</v>
+        <v>47476.75964516138</v>
       </c>
       <c r="D5" t="n">
-        <v>49237.11966583622</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
         <v>23358.20041161357</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161356</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
-        <v>38686.60227808916</v>
+        <v>35301.90916755498</v>
       </c>
       <c r="H5" t="n">
-        <v>38686.60227808917</v>
+        <v>35301.90916755498</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587223</v>
@@ -26499,7 +26499,7 @@
         <v>51571.48185587223</v>
       </c>
       <c r="L5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="M5" t="n">
         <v>51571.48185587222</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343625.5038813326</v>
+        <v>-358221.0189666812</v>
       </c>
       <c r="C6" t="n">
-        <v>55481.34877050962</v>
+        <v>9579.103149804319</v>
       </c>
       <c r="D6" t="n">
-        <v>1678.836656272862</v>
+        <v>6251.323612011041</v>
       </c>
       <c r="E6" t="n">
-        <v>16812.24013277844</v>
+        <v>25307.42131072515</v>
       </c>
       <c r="F6" t="n">
-        <v>118147.6973390458</v>
+        <v>105953.6353200111</v>
       </c>
       <c r="G6" t="n">
-        <v>-36740.04171946179</v>
+        <v>-12790.34035909947</v>
       </c>
       <c r="H6" t="n">
-        <v>144999.8241322244</v>
+        <v>128819.2055012409</v>
       </c>
       <c r="I6" t="n">
-        <v>19561.63207079042</v>
+        <v>-26928.89198926744</v>
       </c>
       <c r="J6" t="n">
-        <v>154530.9216178261</v>
+        <v>146917.5415016632</v>
       </c>
       <c r="K6" t="n">
-        <v>167559.486436431</v>
+        <v>153854.361542647</v>
       </c>
       <c r="L6" t="n">
-        <v>156709.4898794049</v>
+        <v>150164.5799565412</v>
       </c>
       <c r="M6" t="n">
-        <v>143919.8360348769</v>
+        <v>141152.903249844</v>
       </c>
       <c r="N6" t="n">
-        <v>167559.4864364312</v>
+        <v>159946.1063202682</v>
       </c>
       <c r="O6" t="n">
-        <v>121198.0739821843</v>
+        <v>123821.844137487</v>
       </c>
       <c r="P6" t="n">
-        <v>167559.4864364311</v>
+        <v>159946.1063202682</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>396.859943267568</v>
+        <v>430.3910100719429</v>
       </c>
       <c r="D3" t="n">
-        <v>457.5913187641655</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
         <v>548.4699409129046</v>
@@ -26752,10 +26752,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>714.3085898831953</v>
+        <v>677.689447358124</v>
       </c>
       <c r="H3" t="n">
-        <v>714.3085898831954</v>
+        <v>677.689447358124</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26776,10 +26776,10 @@
         <v>853.7106645376841</v>
       </c>
       <c r="O3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="P3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="D4" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="F4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="F4" t="n">
-        <v>187.5255871663198</v>
-      </c>
       <c r="G4" t="n">
-        <v>380.1755759643997</v>
+        <v>337.6361713017743</v>
       </c>
       <c r="H4" t="n">
-        <v>380.1755759643997</v>
+        <v>337.6361713017743</v>
       </c>
       <c r="I4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="J4" t="n">
         <v>542.114956726163</v>
@@ -26819,7 +26819,7 @@
         <v>542.1149567261632</v>
       </c>
       <c r="L4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="M4" t="n">
         <v>542.114956726163</v>
@@ -26828,10 +26828,10 @@
         <v>542.1149567261632</v>
       </c>
       <c r="O4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="P4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
     </row>
   </sheetData>
@@ -26962,25 +26962,25 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33.53106680437492</v>
       </c>
       <c r="D3" t="n">
-        <v>60.73137549659748</v>
+        <v>45.72474112655925</v>
       </c>
       <c r="E3" t="n">
-        <v>90.87862214873905</v>
+        <v>72.35418971440237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>165.8386489702907</v>
+        <v>129.2195064452195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>139.4020746544887</v>
+        <v>176.0212171795602</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,43 +27014,43 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="D4" t="n">
-        <v>42.86994226197751</v>
+        <v>38.6482583881963</v>
       </c>
       <c r="E4" t="n">
-        <v>94.86063787721767</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>192.6499887980799</v>
+        <v>150.1105841354544</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>161.9393807617635</v>
+        <v>204.4787854243888</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712437</v>
+        <v>49.79500702712448</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.66939470960301</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197751</v>
+        <v>38.64825838819607</v>
       </c>
       <c r="M4" t="n">
-        <v>94.86063787721744</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>192.6499887980799</v>
+        <v>150.1105841354542</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197751</v>
+        <v>38.6482583881963</v>
       </c>
       <c r="M4" t="n">
-        <v>94.86063787721767</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>192.6499887980799</v>
+        <v>150.1105841354544</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31144,10 +31144,10 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P3" t="n">
-        <v>134.9670493543445</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q3" t="n">
         <v>108.96426215905</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.595416857357056</v>
+        <v>1.730215115867106</v>
       </c>
       <c r="H5" t="n">
-        <v>16.33906289040796</v>
+        <v>17.719565555374</v>
       </c>
       <c r="I5" t="n">
-        <v>61.50730839325797</v>
+        <v>66.70411825446666</v>
       </c>
       <c r="J5" t="n">
-        <v>135.4090114971086</v>
+        <v>146.8498451903259</v>
       </c>
       <c r="K5" t="n">
-        <v>202.9430070690328</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>251.7687457173739</v>
+        <v>273.0409218971986</v>
       </c>
       <c r="M5" t="n">
-        <v>280.1412402543974</v>
+        <v>303.8106349640001</v>
       </c>
       <c r="N5" t="n">
-        <v>279.2080706237156</v>
+        <v>302.8774653333184</v>
       </c>
       <c r="O5" t="n">
-        <v>268.8097920250189</v>
+        <v>291.5217821035541</v>
       </c>
       <c r="P5" t="n">
-        <v>229.4229383590166</v>
+        <v>248.8070964305848</v>
       </c>
       <c r="Q5" t="n">
-        <v>172.2870721549169</v>
+        <v>186.8437675935941</v>
       </c>
       <c r="R5" t="n">
-        <v>100.2181041659553</v>
+        <v>108.6856252720872</v>
       </c>
       <c r="S5" t="n">
-        <v>36.35556163702395</v>
+        <v>39.42727695282172</v>
       </c>
       <c r="T5" t="n">
-        <v>6.983937293080517</v>
+        <v>7.57401666970826</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1276333485885645</v>
+        <v>0.1384172092693684</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8536232741981653</v>
+        <v>0.9257467009094621</v>
       </c>
       <c r="H6" t="n">
-        <v>8.244203727124386</v>
+        <v>8.940764190362438</v>
       </c>
       <c r="I6" t="n">
-        <v>29.39009957217367</v>
+        <v>31.87329650061087</v>
       </c>
       <c r="J6" t="n">
-        <v>80.64867960308193</v>
+        <v>87.46276177320495</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3448253911411</v>
+        <v>201.0047825812409</v>
       </c>
       <c r="M6" t="n">
-        <v>191.929040949143</v>
+        <v>215.5984356587457</v>
       </c>
       <c r="N6" t="n">
-        <v>181.136719110458</v>
+        <v>204.8061138200607</v>
       </c>
       <c r="O6" t="n">
-        <v>164.3536950713535</v>
+        <v>216.0606461811718</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>142.0201476936616</v>
       </c>
       <c r="Q6" t="n">
-        <v>108.96426215905</v>
+        <v>118.1707543125833</v>
       </c>
       <c r="R6" t="n">
-        <v>52.99952223486505</v>
+        <v>57.47750130734365</v>
       </c>
       <c r="S6" t="n">
-        <v>15.85567792205802</v>
+        <v>17.19533894013846</v>
       </c>
       <c r="T6" t="n">
-        <v>3.440700828895235</v>
+        <v>3.731408851472787</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05615942593408984</v>
+        <v>0.0609043882177278</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7156490780234833</v>
+        <v>0.7761149361953068</v>
       </c>
       <c r="H7" t="n">
-        <v>6.362770893699701</v>
+        <v>6.900367341809188</v>
       </c>
       <c r="I7" t="n">
-        <v>21.52151954637894</v>
+        <v>23.3398928084916</v>
       </c>
       <c r="J7" t="n">
-        <v>50.59638981626026</v>
+        <v>54.87132598900818</v>
       </c>
       <c r="K7" t="n">
-        <v>83.14541106491014</v>
+        <v>90.17044440523654</v>
       </c>
       <c r="L7" t="n">
-        <v>106.3975001999641</v>
+        <v>115.387124241255</v>
       </c>
       <c r="M7" t="n">
-        <v>112.1812459305356</v>
+        <v>121.6595440437789</v>
       </c>
       <c r="N7" t="n">
-        <v>109.5138266397209</v>
+        <v>118.7667520088692</v>
       </c>
       <c r="O7" t="n">
-        <v>101.1537442282647</v>
+        <v>109.7003184360421</v>
       </c>
       <c r="P7" t="n">
-        <v>86.55450303658561</v>
+        <v>93.86757373765779</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.92585143340277</v>
+        <v>64.98904252086338</v>
       </c>
       <c r="R7" t="n">
-        <v>32.17818490821952</v>
+        <v>34.89694976747261</v>
       </c>
       <c r="S7" t="n">
-        <v>12.47181165973652</v>
+        <v>13.52556666078548</v>
       </c>
       <c r="T7" t="n">
-        <v>3.057773333373064</v>
+        <v>3.316127454652674</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0390354042558264</v>
+        <v>0.04233354197428951</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.839563090509207</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>18.83942550067742</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>70.91975604685626</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>156.1306178531059</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>233.9993234743607</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>290.2968524055319</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>323.011182516375</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>322.0780128856931</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>309.9456856660333</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>264.5314718690873</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.6521186902262</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
-        <v>115.5544549841991</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>41.91904392497859</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.052687428704056</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.505812112440497</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>33.88765898395</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>92.99032639149897</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>158.9352790843423</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>213.7080965605662</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111205</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7876250036813</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264121</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>187.9491588335306</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6390352953988</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>61.11002555118424</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>18.28206825439849</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>3.967230395700641</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.336464094284494</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>24.81495217166983</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>58.33914239391663</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>95.8691320296071</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
-        <v>122.6794824109699</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>129.3483132696804</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>126.272699487823</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>116.6332758056598</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>99.79991647276155</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>69.09628913338899</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>37.102404305042</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.38036980444106</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.52570360359275</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.871592321138472</v>
+        <v>2.724379687871853</v>
       </c>
       <c r="H17" t="n">
-        <v>29.40869485885938</v>
+        <v>27.90105347841762</v>
       </c>
       <c r="I17" t="n">
-        <v>110.707062960691</v>
+        <v>105.0316479166797</v>
       </c>
       <c r="J17" t="n">
-        <v>243.7228087662266</v>
+        <v>231.2283205335139</v>
       </c>
       <c r="K17" t="n">
-        <v>365.2773117200181</v>
+        <v>346.5513127211295</v>
       </c>
       <c r="L17" t="n">
-        <v>453.1588052180597</v>
+        <v>429.9275475938378</v>
       </c>
       <c r="M17" t="n">
-        <v>504.2264851591059</v>
+        <v>478.3772348680289</v>
       </c>
       <c r="N17" t="n">
-        <v>512.3853968415407</v>
+        <v>486.1178786561948</v>
       </c>
       <c r="O17" t="n">
-        <v>483.83100069822</v>
+        <v>459.0273281349191</v>
       </c>
       <c r="P17" t="n">
-        <v>412.9385652701139</v>
+        <v>391.7692045905826</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.0996652693423</v>
+        <v>294.2023570186718</v>
       </c>
       <c r="R17" t="n">
-        <v>180.3826611427147</v>
+        <v>171.1353155682804</v>
       </c>
       <c r="S17" t="n">
-        <v>65.43641001794298</v>
+        <v>62.08180213737992</v>
       </c>
       <c r="T17" t="n">
-        <v>12.57039538578366</v>
+        <v>11.92597208365904</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2297273856910777</v>
+        <v>0.2179503750297482</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.536437344277062</v>
+        <v>1.457671641487286</v>
       </c>
       <c r="H18" t="n">
-        <v>14.8387501407811</v>
+        <v>14.07803927436405</v>
       </c>
       <c r="I18" t="n">
-        <v>52.89926821304796</v>
+        <v>50.18737888454032</v>
       </c>
       <c r="J18" t="n">
-        <v>145.1596352327728</v>
+        <v>137.7180036371826</v>
       </c>
       <c r="K18" t="n">
-        <v>248.1009372993359</v>
+        <v>235.3820036168307</v>
       </c>
       <c r="L18" t="n">
-        <v>333.602327756298</v>
+        <v>316.5001518062635</v>
       </c>
       <c r="M18" t="n">
-        <v>389.2981814863414</v>
+        <v>369.3407488101775</v>
       </c>
       <c r="N18" t="n">
-        <v>399.6017459573924</v>
+        <v>379.1160994234849</v>
       </c>
       <c r="O18" t="n">
-        <v>365.557529013148</v>
+        <v>346.8171646305297</v>
       </c>
       <c r="P18" t="n">
-        <v>293.3921451540996</v>
+        <v>278.3513505573397</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1248792449105</v>
+        <v>186.0705063765174</v>
       </c>
       <c r="R18" t="n">
-        <v>95.3938905508162</v>
+        <v>90.50350770567553</v>
       </c>
       <c r="S18" t="n">
-        <v>28.53864979391821</v>
+        <v>27.07561141095899</v>
       </c>
       <c r="T18" t="n">
-        <v>6.192920699081663</v>
+        <v>5.875439642661469</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1010814042287541</v>
+        <v>0.09589945009784777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.288097457166418</v>
+        <v>1.222062937858912</v>
       </c>
       <c r="H19" t="n">
-        <v>11.45235739189779</v>
+        <v>10.86525048387288</v>
       </c>
       <c r="I19" t="n">
-        <v>38.73660353005918</v>
+        <v>36.75076544033892</v>
       </c>
       <c r="J19" t="n">
-        <v>91.06849022166571</v>
+        <v>86.39984970662508</v>
       </c>
       <c r="K19" t="n">
-        <v>149.653504568971</v>
+        <v>141.9814940530626</v>
       </c>
       <c r="L19" t="n">
-        <v>191.5049619499963</v>
+        <v>181.6874298704059</v>
       </c>
       <c r="M19" t="n">
-        <v>201.9151313992776</v>
+        <v>191.5639203409201</v>
       </c>
       <c r="N19" t="n">
-        <v>197.114040877112</v>
+        <v>187.008958481628</v>
       </c>
       <c r="O19" t="n">
-        <v>182.0667205820315</v>
+        <v>172.7330414348216</v>
       </c>
       <c r="P19" t="n">
-        <v>155.7895324558365</v>
+        <v>147.8029575024996</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.8605970723625</v>
+        <v>102.3311065510767</v>
       </c>
       <c r="R19" t="n">
-        <v>57.91754566495545</v>
+        <v>54.94839355136524</v>
       </c>
       <c r="S19" t="n">
-        <v>22.44802568534565</v>
+        <v>21.29722410795939</v>
       </c>
       <c r="T19" t="n">
-        <v>5.503689135165601</v>
+        <v>5.221541643578986</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0702598612999865</v>
+        <v>0.066657978428668</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.871592321138472</v>
+        <v>2.724379687871853</v>
       </c>
       <c r="H20" t="n">
-        <v>29.40869485885938</v>
+        <v>27.90105347841762</v>
       </c>
       <c r="I20" t="n">
-        <v>110.707062960691</v>
+        <v>105.0316479166797</v>
       </c>
       <c r="J20" t="n">
-        <v>243.7228087662266</v>
+        <v>231.2283205335139</v>
       </c>
       <c r="K20" t="n">
-        <v>365.2773117200182</v>
+        <v>346.5513127211295</v>
       </c>
       <c r="L20" t="n">
-        <v>453.1588052180598</v>
+        <v>429.9275475938378</v>
       </c>
       <c r="M20" t="n">
-        <v>504.2264851591061</v>
+        <v>478.3772348680289</v>
       </c>
       <c r="N20" t="n">
-        <v>512.3853968415408</v>
+        <v>486.1178786561948</v>
       </c>
       <c r="O20" t="n">
-        <v>483.8310006982201</v>
+        <v>459.0273281349191</v>
       </c>
       <c r="P20" t="n">
-        <v>412.938565270114</v>
+        <v>391.7692045905826</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.0996652693424</v>
+        <v>294.2023570186718</v>
       </c>
       <c r="R20" t="n">
-        <v>180.3826611427147</v>
+        <v>171.1353155682804</v>
       </c>
       <c r="S20" t="n">
-        <v>65.43641001794299</v>
+        <v>62.08180213737992</v>
       </c>
       <c r="T20" t="n">
-        <v>12.57039538578367</v>
+        <v>11.92597208365904</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2297273856910777</v>
+        <v>0.2179503750297482</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.536437344277062</v>
+        <v>1.457671641487286</v>
       </c>
       <c r="H21" t="n">
-        <v>14.8387501407811</v>
+        <v>14.07803927436405</v>
       </c>
       <c r="I21" t="n">
-        <v>52.89926821304797</v>
+        <v>50.18737888454032</v>
       </c>
       <c r="J21" t="n">
-        <v>145.1596352327728</v>
+        <v>137.7180036371826</v>
       </c>
       <c r="K21" t="n">
-        <v>248.1009372993359</v>
+        <v>235.3820036168307</v>
       </c>
       <c r="L21" t="n">
-        <v>333.6023277562981</v>
+        <v>316.5001518062635</v>
       </c>
       <c r="M21" t="n">
-        <v>389.2981814863414</v>
+        <v>369.3407488101775</v>
       </c>
       <c r="N21" t="n">
-        <v>399.6017459573925</v>
+        <v>379.1160994234849</v>
       </c>
       <c r="O21" t="n">
-        <v>365.5575290131481</v>
+        <v>346.8171646305297</v>
       </c>
       <c r="P21" t="n">
-        <v>293.3921451540997</v>
+        <v>278.3513505573397</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1248792449106</v>
+        <v>186.0705063765174</v>
       </c>
       <c r="R21" t="n">
-        <v>95.39389055081621</v>
+        <v>90.50350770567553</v>
       </c>
       <c r="S21" t="n">
-        <v>28.53864979391821</v>
+        <v>27.07561141095899</v>
       </c>
       <c r="T21" t="n">
-        <v>6.192920699081664</v>
+        <v>5.875439642661469</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1010814042287541</v>
+        <v>0.09589945009784777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.288097457166418</v>
+        <v>1.222062937858912</v>
       </c>
       <c r="H22" t="n">
-        <v>11.4523573918978</v>
+        <v>10.86525048387288</v>
       </c>
       <c r="I22" t="n">
-        <v>38.73660353005919</v>
+        <v>36.75076544033892</v>
       </c>
       <c r="J22" t="n">
-        <v>91.06849022166573</v>
+        <v>86.39984970662508</v>
       </c>
       <c r="K22" t="n">
-        <v>149.653504568971</v>
+        <v>141.9814940530626</v>
       </c>
       <c r="L22" t="n">
-        <v>191.5049619499964</v>
+        <v>181.6874298704059</v>
       </c>
       <c r="M22" t="n">
-        <v>201.9151313992776</v>
+        <v>191.5639203409201</v>
       </c>
       <c r="N22" t="n">
-        <v>197.114040877112</v>
+        <v>187.008958481628</v>
       </c>
       <c r="O22" t="n">
-        <v>182.0667205820316</v>
+        <v>172.7330414348216</v>
       </c>
       <c r="P22" t="n">
-        <v>155.7895324558365</v>
+        <v>147.8029575024996</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.8605970723625</v>
+        <v>102.3311065510767</v>
       </c>
       <c r="R22" t="n">
-        <v>57.91754566495546</v>
+        <v>54.94839355136524</v>
       </c>
       <c r="S22" t="n">
-        <v>22.44802568534566</v>
+        <v>21.29722410795939</v>
       </c>
       <c r="T22" t="n">
-        <v>5.503689135165602</v>
+        <v>5.221541643578986</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0702598612999865</v>
+        <v>0.066657978428668</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34137,10 +34137,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L41" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M41" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N41" t="n">
         <v>612.3808166839008</v>
@@ -34149,22 +34149,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P41" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q41" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R41" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S41" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T41" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U41" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I42" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J42" t="n">
         <v>173.4885040076062</v>
@@ -34216,19 +34216,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L42" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M42" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N42" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O42" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P42" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q42" t="n">
         <v>234.3999545349506</v>
@@ -34237,10 +34237,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S42" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T42" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U42" t="n">
         <v>0.1208081129062761</v>
@@ -34286,22 +34286,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I43" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J43" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K43" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L43" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M43" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N43" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O43" t="n">
         <v>217.5982526595396</v>
@@ -34313,13 +34313,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R43" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S43" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T43" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U43" t="n">
         <v>0.08397154077419852</v>
@@ -34374,10 +34374,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L44" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M44" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N44" t="n">
         <v>612.3808166839008</v>
@@ -34386,22 +34386,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P44" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q44" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S44" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T44" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U44" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I45" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J45" t="n">
         <v>173.4885040076062</v>
@@ -34453,19 +34453,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L45" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M45" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N45" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O45" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P45" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q45" t="n">
         <v>234.3999545349506</v>
@@ -34474,10 +34474,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S45" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T45" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U45" t="n">
         <v>0.1208081129062761</v>
@@ -34523,22 +34523,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I46" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J46" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K46" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L46" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M46" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N46" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O46" t="n">
         <v>217.5982526595396</v>
@@ -34550,13 +34550,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R46" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S46" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T46" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U46" t="n">
         <v>0.08397154077419852</v>
@@ -34792,10 +34792,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O3" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9926419400142784</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738662</v>
+        <v>37.27450692721135</v>
       </c>
       <c r="M5" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N5" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>61.42357068186735</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>17.57410067531529</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.79044561126693</v>
+        <v>62.45040280136672</v>
       </c>
       <c r="M6" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N6" t="n">
-        <v>49.79500702712468</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O6" t="n">
-        <v>21.75745062690909</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>8.045740279331341</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.90947242938014</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>54.53043743554463</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>92.6649492891022</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>79.84747424434661</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>33.29847611381774</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.09384010998329</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>75.15371678069201</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>32.44591292034803</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>91.5825882819677</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>53.97475141920032</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>62.67690423954028</v>
+        <v>50.18241600682762</v>
       </c>
       <c r="K17" t="n">
-        <v>145.1874606750376</v>
+        <v>126.461461676149</v>
       </c>
       <c r="L17" t="n">
-        <v>217.3923902480724</v>
+        <v>194.1611326238506</v>
       </c>
       <c r="M17" t="n">
-        <v>273.8802519318332</v>
+        <v>248.0310016407562</v>
       </c>
       <c r="N17" t="n">
-        <v>282.9723332449498</v>
+        <v>256.7048150596039</v>
       </c>
       <c r="O17" t="n">
-        <v>253.7327892765333</v>
+        <v>228.9291167132323</v>
       </c>
       <c r="P17" t="n">
-        <v>181.7055695148444</v>
+        <v>160.5362088353131</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.79397539489284</v>
+        <v>71.89666714422228</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.32200856610606</v>
+        <v>10.88037697051587</v>
       </c>
       <c r="K18" t="n">
-        <v>110.2594983249769</v>
+        <v>97.54056464247168</v>
       </c>
       <c r="L18" t="n">
-        <v>195.0479479764238</v>
+        <v>177.9457720263893</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1641475643231</v>
+        <v>227.2067148881592</v>
       </c>
       <c r="N18" t="n">
-        <v>268.2600338740591</v>
+        <v>247.7743873401515</v>
       </c>
       <c r="O18" t="n">
-        <v>222.9612845687036</v>
+        <v>204.2209201860853</v>
       </c>
       <c r="P18" t="n">
-        <v>159.4177377397694</v>
+        <v>144.3769431430094</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.14310515888903</v>
+        <v>46.08873229049587</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.64024639843564</v>
+        <v>12.96823588252727</v>
       </c>
       <c r="L19" t="n">
-        <v>56.62028566875804</v>
+        <v>46.80275358916762</v>
       </c>
       <c r="M19" t="n">
-        <v>62.98934745167253</v>
+        <v>52.63813639331508</v>
       </c>
       <c r="N19" t="n">
-        <v>69.42849641187883</v>
+        <v>59.32341401639479</v>
       </c>
       <c r="O19" t="n">
-        <v>43.61018213018875</v>
+        <v>34.27650298297877</v>
       </c>
       <c r="P19" t="n">
-        <v>18.06152840668886</v>
+        <v>10.07495345335201</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.67690423954031</v>
+        <v>50.18241600682762</v>
       </c>
       <c r="K20" t="n">
-        <v>145.1874606750376</v>
+        <v>126.461461676149</v>
       </c>
       <c r="L20" t="n">
-        <v>217.3923902480726</v>
+        <v>194.1611326238506</v>
       </c>
       <c r="M20" t="n">
-        <v>273.8802519318333</v>
+        <v>248.0310016407562</v>
       </c>
       <c r="N20" t="n">
-        <v>282.9723332449499</v>
+        <v>256.7048150596039</v>
       </c>
       <c r="O20" t="n">
-        <v>253.7327892765333</v>
+        <v>228.9291167132323</v>
       </c>
       <c r="P20" t="n">
-        <v>181.7055695148445</v>
+        <v>160.5362088353131</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.7939753948929</v>
+        <v>71.89666714422228</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.32200856610609</v>
+        <v>10.88037697051587</v>
       </c>
       <c r="K21" t="n">
-        <v>110.2594983249769</v>
+        <v>97.54056464247168</v>
       </c>
       <c r="L21" t="n">
-        <v>195.0479479764239</v>
+        <v>177.9457720263893</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1641475643231</v>
+        <v>227.2067148881592</v>
       </c>
       <c r="N21" t="n">
-        <v>268.2600338740592</v>
+        <v>247.7743873401515</v>
       </c>
       <c r="O21" t="n">
-        <v>222.9612845687037</v>
+        <v>204.2209201860853</v>
       </c>
       <c r="P21" t="n">
-        <v>159.4177377397694</v>
+        <v>144.3769431430094</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.14310515888906</v>
+        <v>46.08873229049587</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.64024639843566</v>
+        <v>12.96823588252727</v>
       </c>
       <c r="L22" t="n">
-        <v>56.62028566875807</v>
+        <v>46.80275358916762</v>
       </c>
       <c r="M22" t="n">
-        <v>62.98934745167259</v>
+        <v>52.63813639331508</v>
       </c>
       <c r="N22" t="n">
-        <v>69.42849641187885</v>
+        <v>59.32341401639479</v>
       </c>
       <c r="O22" t="n">
-        <v>43.61018213018878</v>
+        <v>34.27650298297877</v>
       </c>
       <c r="P22" t="n">
-        <v>18.06152840668889</v>
+        <v>10.07495345335201</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K41" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L41" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M41" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N41" t="n">
         <v>382.9677530873099</v>
@@ -37797,7 +37797,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P41" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q41" t="n">
         <v>148.31198861839</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K42" t="n">
         <v>158.6780472169987</v>
@@ -37867,7 +37867,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M42" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N42" t="n">
         <v>346.2449737319509</v>
@@ -37879,7 +37879,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L43" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M43" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N43" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O43" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P43" t="n">
         <v>48.46489236084162</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K44" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L44" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M44" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N44" t="n">
         <v>382.9677530873099</v>
@@ -38034,7 +38034,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P44" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q44" t="n">
         <v>148.31198861839</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K45" t="n">
         <v>158.6780472169987</v>
@@ -38104,7 +38104,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M45" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N45" t="n">
         <v>346.2449737319509</v>
@@ -38116,7 +38116,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L46" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M46" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N46" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O46" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P46" t="n">
         <v>48.46489236084162</v>
